--- a/mySQL_Create/types.xlsx
+++ b/mySQL_Create/types.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="28">
   <si>
     <t>Column name</t>
   </si>
@@ -95,6 +95,9 @@
   </si>
   <si>
     <t>DEFAULT NULL</t>
+  </si>
+  <si>
+    <t>UNIQUE</t>
   </si>
 </sst>
 </file>
@@ -250,7 +253,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -555,16 +558,16 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="19.140625" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19.109375" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="77.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="79.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -587,7 +590,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -606,7 +609,7 @@
       <c r="F2" s="5"/>
       <c r="G2" s="6"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>9</v>
       </c>
@@ -619,11 +622,13 @@
       <c r="D3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="9"/>
+      <c r="E3" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="F3" s="9"/>
       <c r="G3" s="10"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>12</v>
       </c>
@@ -640,7 +645,7 @@
       <c r="F4" s="9"/>
       <c r="G4" s="10"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>14</v>
       </c>
@@ -659,7 +664,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>17</v>
       </c>
@@ -676,7 +681,7 @@
       <c r="F6" s="9"/>
       <c r="G6" s="10"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>20</v>
       </c>
@@ -693,7 +698,7 @@
       <c r="F7" s="9"/>
       <c r="G7" s="10"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>22</v>
       </c>
@@ -710,7 +715,7 @@
       <c r="F8" s="9"/>
       <c r="G8" s="10"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>23</v>
       </c>

--- a/mySQL_Create/types.xlsx
+++ b/mySQL_Create/types.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="28">
   <si>
     <t>Column name</t>
   </si>
@@ -143,43 +143,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -228,29 +191,64 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -565,172 +563,175 @@
   <cols>
     <col min="3" max="3" width="19.109375" customWidth="1"/>
     <col min="4" max="4" width="23.6640625" customWidth="1"/>
+    <col min="7" max="7" width="9.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="79.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="15" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="6"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="10"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="7"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="10"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="7"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="11" t="s">
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="10"/>
+      <c r="E6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="G6" s="7"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="10"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="7"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="10"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="7"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="15"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
